--- a/data/536/BIDN/SEKI/CGOVDB_historical - Quarterly.xlsx
+++ b/data/536/BIDN/SEKI/CGOVDB_historical - Quarterly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ2"/>
+  <dimension ref="A1:DA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,6 +882,11 @@
           <t>2021-Q3</t>
         </is>
       </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1190,13 +1195,16 @@
         <v>206375.0163274344</v>
       </c>
       <c r="CX2" t="n">
-        <v>203176.4259123172</v>
+        <v>203176.4259123235</v>
       </c>
       <c r="CY2" t="n">
         <v>205029.2645266366</v>
       </c>
       <c r="CZ2" t="n">
         <v>205538.4415482625</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>200174.6431545019</v>
       </c>
     </row>
   </sheetData>
